--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giulia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giulia/Desktop/easyexercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C48505-E407-EF4B-93F2-73EB6B2F667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDC7CF0-1E84-D042-BC78-2984C03A92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1260" windowWidth="27640" windowHeight="16460" xr2:uid="{A7799B31-11A1-E849-A7C0-21A84551C890}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>section</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Water used</t>
+  </si>
+  <si>
+    <t>Auxiliar fuel</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,9 +589,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giulia/Desktop/easyexercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDC7CF0-1E84-D042-BC78-2984C03A92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D444355-3AEB-D04A-905D-966BCA8286AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1260" windowWidth="27640" windowHeight="16460" xr2:uid="{A7799B31-11A1-E849-A7C0-21A84551C890}"/>
+    <workbookView xWindow="1080" yWindow="1260" windowWidth="16220" windowHeight="16460" xr2:uid="{A7799B31-11A1-E849-A7C0-21A84551C890}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>section</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Auxiliar fuel</t>
+  </si>
+  <si>
+    <t>Waste details</t>
+  </si>
+  <si>
+    <t>waste composition</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A702E8B5-BDD3-3641-807F-6C8AA8B7B2B3}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,17 +554,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -578,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -593,12 +602,27 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giulia/Desktop/easyexercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D444355-3AEB-D04A-905D-966BCA8286AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EE0A0-5579-D246-A378-7545F61E66A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1260" windowWidth="16220" windowHeight="16460" xr2:uid="{A7799B31-11A1-E849-A7C0-21A84551C890}"/>
+    <workbookView xWindow="540" yWindow="1260" windowWidth="16220" windowHeight="16460" xr2:uid="{A7799B31-11A1-E849-A7C0-21A84551C890}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
   <si>
     <t>section</t>
   </si>
@@ -74,9 +74,6 @@
     <t>2023,2024,2025</t>
   </si>
   <si>
-    <t>Data Entry</t>
-  </si>
-  <si>
     <t>Waste treated quantity</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t>Sodium bicarbonate used</t>
   </si>
   <si>
-    <t>Water used</t>
-  </si>
-  <si>
-    <t>Auxiliar fuel</t>
-  </si>
-  <si>
     <t>Waste details</t>
   </si>
   <si>
@@ -102,6 +93,93 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>Input materials or fuels</t>
+  </si>
+  <si>
+    <t>Activated carbon</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Sodium hypochlorite (NaClO)</t>
+  </si>
+  <si>
+    <t>Scale and corrosion inhibitors</t>
+  </si>
+  <si>
+    <t>Alkalinizing agent</t>
+  </si>
+  <si>
+    <t>Deoxidizer</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Auxiliary fuel</t>
+  </si>
+  <si>
+    <t>Emissions to air</t>
+  </si>
+  <si>
+    <t>Total Carbone dioxide</t>
+  </si>
+  <si>
+    <t>Hydrochloric acid (HCl)</t>
+  </si>
+  <si>
+    <t>Hydrofluoric acid (HF)</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide (SO2)</t>
+  </si>
+  <si>
+    <t>Nitrogen dioxide (NO2)</t>
+  </si>
+  <si>
+    <t>Ammonia (NH3)</t>
+  </si>
+  <si>
+    <t>Mercury (Hg)</t>
+  </si>
+  <si>
+    <t>Zinc (Zn)</t>
+  </si>
+  <si>
+    <t>Dioxins and furans (PCDD/PCDF)</t>
+  </si>
+  <si>
+    <t>Carbon monoxide (CO)</t>
+  </si>
+  <si>
+    <t>Total dust (&lt; 10 µm)</t>
+  </si>
+  <si>
+    <t>Polycyclic aromatic hydrocarbons (PAHs)</t>
+  </si>
+  <si>
+    <t>Cadmium (Cd)</t>
+  </si>
+  <si>
+    <t>Thallium (Tl)</t>
+  </si>
+  <si>
+    <t>Antimony (Sb)</t>
+  </si>
+  <si>
+    <t>Arsenic (As)</t>
+  </si>
+  <si>
+    <t>Lead (Pb)</t>
+  </si>
+  <si>
+    <t>Chromium (Cr)</t>
+  </si>
+  <si>
+    <t>Cobalt (Co)</t>
   </si>
 </sst>
 </file>
@@ -490,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A702E8B5-BDD3-3641-807F-6C8AA8B7B2B3}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,13 +632,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -569,61 +647,412 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
